--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_100_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_100_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.003037619159868102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1506370165710081</v>
+        <v>0.1506413972067623</v>
       </c>
       <c r="G2" t="n">
-        <v>0.137153820280093</v>
+        <v>0.1374860845063533</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1656123493375144</v>
+        <v>0.1657111049082828</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0386632062782029</v>
+        <v>0.03866805334132717</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03544585237067305</v>
+        <v>0.03548375152748633</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04193230090146073</v>
+        <v>0.04205321864901688</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002940944880996855</v>
+        <v>0.002941342836628782</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002696706871394406</v>
+        <v>0.002700191347933813</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003194383187434398</v>
+        <v>0.00320134225805314</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008534260257186952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003695034949674172</v>
+        <v>0.003695467431942373</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003325539636468021</v>
+        <v>0.003332700847122136</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004081001803928719</v>
+        <v>0.004086361444279724</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00342116480475228</v>
+        <v>0.003421617527281881</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003082501539797701</v>
+        <v>0.003089402474666933</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003771199772415041</v>
+        <v>0.003776270064140217</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003860406258167589</v>
+        <v>0.003860837586229919</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003483522349510394</v>
+        <v>0.003490699157941867</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004253574834532115</v>
+        <v>0.004258951943139419</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.003891045185586797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1543320515206822</v>
+        <v>0.1543368646387047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.140479359916561</v>
+        <v>0.1408187853534754</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1696933511414431</v>
+        <v>0.1697974663525625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04208437108295518</v>
+        <v>0.04208967086860904</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03852835391047075</v>
+        <v>0.03857315400215326</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04570350067387577</v>
+        <v>0.04582948871315709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006801351139164444</v>
+        <v>0.006802180422858701</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0061802292209048</v>
+        <v>0.006190890505875679</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007447958021966512</v>
+        <v>0.00746029420119256</v>
       </c>
     </row>
   </sheetData>
